--- a/media/MAGMA/Billing/FEB 22/Performance.xlsx
+++ b/media/MAGMA/Billing/FEB 22/Performance.xlsx
@@ -493,16 +493,16 @@
         <v>191</v>
       </c>
       <c r="E2" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>53222</v>
+        <v>60058</v>
       </c>
       <c r="H2" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="3">
@@ -523,16 +523,16 @@
         <v>123</v>
       </c>
       <c r="E3" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G3" t="n">
-        <v>130054.9</v>
+        <v>850757.8</v>
       </c>
       <c r="H3" t="n">
-        <v>1.17</v>
+        <v>7.68</v>
       </c>
     </row>
     <row r="4">
@@ -553,16 +553,16 @@
         <v>45</v>
       </c>
       <c r="E4" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>379619</v>
+        <v>408501</v>
       </c>
       <c r="H4" t="n">
-        <v>7.11</v>
+        <v>7.65</v>
       </c>
     </row>
     <row r="5">

--- a/media/MAGMA/Billing/FEB 22/Performance.xlsx
+++ b/media/MAGMA/Billing/FEB 22/Performance.xlsx
@@ -523,16 +523,16 @@
         <v>123</v>
       </c>
       <c r="E3" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F3" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G3" t="n">
-        <v>850757.8</v>
+        <v>1043994.34</v>
       </c>
       <c r="H3" t="n">
-        <v>7.68</v>
+        <v>9.42</v>
       </c>
     </row>
     <row r="4">
@@ -553,16 +553,16 @@
         <v>45</v>
       </c>
       <c r="E4" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>408501</v>
+        <v>421829</v>
       </c>
       <c r="H4" t="n">
-        <v>7.65</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="5">
@@ -583,16 +583,16 @@
         <v>1259</v>
       </c>
       <c r="E5" t="n">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="F5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G5" t="n">
-        <v>321597.17</v>
+        <v>386147.69</v>
       </c>
       <c r="H5" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
     </row>
   </sheetData>
